--- a/EmployeeTimeTracking/wwwroot/templateReport.xlsx
+++ b/EmployeeTimeTracking/wwwroot/templateReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asemenov\source\repos\EmployeeTimeTracking\EmployeeTimeTracking\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F7152A-673B-4461-A9AD-F59599D9AAC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782178E5-B46A-4D86-AD26-350AD1C86DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="2505" windowWidth="26070" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="26070" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>Суть работы</t>
-  </si>
-  <si>
     <t>Дата написания отчета</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>&lt;------------ Пример заполнения строки, удалить при заполнении своими данными</t>
-  </si>
-  <si>
-    <t>Разработка проекта</t>
   </si>
   <si>
     <t>8</t>
@@ -101,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -123,12 +117,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -140,21 +138,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -172,30 +155,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -241,17 +200,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -259,38 +209,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -610,240 +560,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="22.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="68.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:16" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44425</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="C2" s="15">
-        <v>44425</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="H2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
